--- a/biology/Botanique/Vietnamosasa/Vietnamosasa.xlsx
+++ b/biology/Botanique/Vietnamosasa/Vietnamosasa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vietnamosasa est un genre de bambous de la famille des Poaceae, sous-famille des Bambusoideae, originaire du Vietnam, qui comprend trois espèces acceptées.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Vietnamosasa comprend  l'Indochine (Vietnam, Cambodge et possiblement Laos) ainsi que la Thaïlande[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Vietnamosasa comprend  l'Indochine (Vietnam, Cambodge et possiblement Laos) ainsi que la Thaïlande.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 octobre 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 octobre 2013) :
 Vietnamosasa ciliata (A.Camus) T.Q.Nguyen (1990)
 Vietnamosasa darlacensis T.Q.Nguyen (1990)
 Vietnamosasa pusilla (A.Chev. &amp; A.Camus) T.Q.Nguyen (1990)</t>
